--- a/data/score-table.xlsx
+++ b/data/score-table.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5348" documentId="11_FBFE07E7E4975AC4D783BCC6928B6E7A6B452549" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE9CB87-B502-4054-8ED0-081E1C1D2829}"/>
+  <xr:revisionPtr revIDLastSave="5372" documentId="11_FBFE07E7E4975AC4D783BCC6928B6E7A6B452549" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F45898F-A065-4F6F-9281-33118D0C094F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Score</t>
   </si>
@@ -60,136 +60,142 @@
     <t>EKIDEN</t>
   </si>
   <si>
+    <t>00:05:03</t>
+  </si>
+  <si>
+    <t>00:04:46</t>
+  </si>
+  <si>
     <t>02:00:00</t>
   </si>
   <si>
-    <t>00:09:33</t>
+    <t>00:04:30</t>
   </si>
   <si>
     <t>01:46:00</t>
   </si>
   <si>
-    <t>00:09:02</t>
+    <t>00:04:16</t>
   </si>
   <si>
     <t>01:44:00</t>
   </si>
   <si>
-    <t>00:08:32</t>
+    <t>00:04:03</t>
   </si>
   <si>
     <t>01:42:00</t>
   </si>
   <si>
-    <t>00:08:04</t>
+    <t>00:03:52</t>
   </si>
   <si>
     <t>01:39:40</t>
   </si>
   <si>
-    <t>00:07:37</t>
+    <t>00:03:41</t>
   </si>
   <si>
     <t>01:37:20</t>
   </si>
   <si>
-    <t>00:07:11</t>
+    <t>00:03:32</t>
   </si>
   <si>
     <t>01:35:00</t>
   </si>
   <si>
-    <t>00:06:46</t>
+    <t>00:03:24</t>
   </si>
   <si>
     <t>01:32:30</t>
   </si>
   <si>
-    <t>00:06:23</t>
+    <t>00:03:17</t>
   </si>
   <si>
     <t>01:29:50</t>
   </si>
   <si>
-    <t>00:06:01</t>
+    <t>00:03:12</t>
   </si>
   <si>
     <t>01:27:00</t>
   </si>
   <si>
-    <t>00:05:41</t>
+    <t>00:03:06</t>
   </si>
   <si>
     <t>01:24:00</t>
   </si>
   <si>
-    <t>00:05:21</t>
+    <t>00:03:02</t>
   </si>
   <si>
     <t>01:20:50</t>
   </si>
   <si>
-    <t>00:05:03</t>
+    <t>00:03:00</t>
   </si>
   <si>
     <t>01:17:40</t>
   </si>
   <si>
-    <t>00:04:46</t>
+    <t>00:02:56</t>
   </si>
   <si>
     <t>01:14:10</t>
   </si>
   <si>
-    <t>00:04:30</t>
+    <t>00:02:53</t>
   </si>
   <si>
     <t>01:10:40</t>
   </si>
   <si>
-    <t>00:04:16</t>
+    <t>00:02:50</t>
   </si>
   <si>
     <t>01:07:10</t>
   </si>
   <si>
-    <t>00:04:03</t>
+    <t>00:02:47</t>
   </si>
   <si>
     <t>01:03:40</t>
   </si>
   <si>
-    <t>00:03:51</t>
+    <t>00:02:46</t>
   </si>
   <si>
     <t>01:00:00</t>
   </si>
   <si>
-    <t>00:03:41</t>
+    <t>00:02:43</t>
   </si>
   <si>
     <t>00:56:00</t>
   </si>
   <si>
-    <t>00:03:32</t>
+    <t>00:02:41</t>
   </si>
   <si>
     <t>00:53:00</t>
   </si>
   <si>
-    <t>00:03:24</t>
+    <t>00:02:38</t>
   </si>
   <si>
     <t>00:50:00</t>
   </si>
   <si>
-    <t>00:03:17</t>
+    <t>00:02:36</t>
   </si>
   <si>
     <t>00:47:40</t>
   </si>
   <si>
-    <t>00:03:12</t>
+    <t>00:02:33</t>
   </si>
   <si>
     <t>00:46:00</t>
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433CE42-0834-44D4-8231-F483CC995A83}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,7 +742,9 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="19">
         <v>0</v>
       </c>
@@ -757,10 +765,12 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="19"/>
       <c r="I3" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -783,11 +793,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -810,11 +820,11 @@
         <v>2</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -837,11 +847,11 @@
         <v>3</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -864,11 +874,11 @@
         <v>4</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -891,11 +901,11 @@
         <v>5</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -914,11 +924,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -937,11 +947,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -964,11 +974,11 @@
         <v>10</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -987,11 +997,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1010,11 +1020,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
       <c r="G13" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1033,11 +1043,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1056,11 +1066,11 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1079,11 +1089,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
       <c r="G16" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1106,11 +1116,11 @@
         <v>20</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1129,11 +1139,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1152,11 +1162,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1175,11 +1185,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1198,11 +1208,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1225,11 +1235,11 @@
         <v>27</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1252,11 +1262,11 @@
         <v>28</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1279,11 +1289,11 @@
         <v>29</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1306,13 +1316,13 @@
         <v>30</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H25" s="19">
         <v>1100</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1321,6 +1331,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4ebaf32-7045-4f65-980f-68dc08947d41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3d6ea874-2d33-4e3d-8d3c-086f4dda839c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008453E59A800FA64C8E364148D22A54CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9f3dcc91182ed629c91351a0dbb5b854">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4ebaf32-7045-4f65-980f-68dc08947d41" xmlns:ns3="3d6ea874-2d33-4e3d-8d3c-086f4dda839c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="644d4bc884b1b04039ad3216497d9494" ns2:_="" ns3:_="">
     <xsd:import namespace="e4ebaf32-7045-4f65-980f-68dc08947d41"/>
@@ -1549,28 +1579,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4ebaf32-7045-4f65-980f-68dc08947d41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3d6ea874-2d33-4e3d-8d3c-086f4dda839c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEC006A8-40A0-4271-89D1-F6F347D159BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4AA1EC1-4EB9-4C1F-B46E-0B26472E9E8D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,5 +1588,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4AA1EC1-4EB9-4C1F-B46E-0B26472E9E8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEC006A8-40A0-4271-89D1-F6F347D159BF}"/>
 </file>
--- a/data/score-table.xlsx
+++ b/data/score-table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Barème" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Barème" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Score</t>
   </si>
@@ -49,70 +49,139 @@
     <t xml:space="preserve">EKIDEN</t>
   </si>
   <si>
+    <t xml:space="preserve">00:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">02:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:27:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:46:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:25:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:44:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:23:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:42:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:21:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:39:40</t>
   </si>
   <si>
+    <t xml:space="preserve">00:20:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:37:20</t>
   </si>
   <si>
+    <t xml:space="preserve">00:19:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:35:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:18:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:32:30</t>
   </si>
   <si>
+    <t xml:space="preserve">00:17:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:29:50</t>
   </si>
   <si>
+    <t xml:space="preserve">00:16:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:27:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:15:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:24:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:14:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:20:50</t>
   </si>
   <si>
+    <t xml:space="preserve">00:13:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:17:40</t>
   </si>
   <si>
+    <t xml:space="preserve">00:13:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:14:10</t>
   </si>
   <si>
+    <t xml:space="preserve">00:12:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:10:40</t>
   </si>
   <si>
+    <t xml:space="preserve">00:12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:07:10</t>
   </si>
   <si>
+    <t xml:space="preserve">00:11:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:03:40</t>
   </si>
   <si>
+    <t xml:space="preserve">00:11:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:10:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">00:56:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:10:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">00:53:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:09:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">00:50:00</t>
   </si>
   <si>
+    <t xml:space="preserve">00:09:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">00:47:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:00</t>
   </si>
   <si>
     <t xml:space="preserve">00:46:00</t>
@@ -271,84 +340,88 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,651 +497,757 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="n">
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="14" t="n">
         <v>2.02</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="15" t="n">
         <v>2.34</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="16" t="n">
         <v>0.34</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="H3" s="20"/>
+      <c r="I3" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <v>2.13</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="15" t="n">
         <v>2.61</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="16" t="n">
         <v>0.36</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>250</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>300</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>350</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E11" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18" t="s">
+      <c r="F11" s="18" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
-        <v>100</v>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="C5" s="14" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="B6" s="13" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="C6" s="14" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="B7" s="13" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>250</v>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>350</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>400</v>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C11" s="14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="G11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>450</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="14" t="n">
         <v>3.64</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="15" t="n">
         <v>6.4</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="16" t="n">
         <v>0.74</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
         <v>500</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="14" t="n">
         <v>3.89</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="15" t="n">
         <v>7.03</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="16" t="n">
         <v>0.8</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
         <v>550</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="14" t="n">
         <v>4.16</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="15" t="n">
         <v>7.7</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="16" t="n">
         <v>0.87</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>600</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D15" s="16" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>650</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D16" s="16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>700</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E17" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18" t="s">
+      <c r="F17" s="18" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
-        <v>600</v>
-      </c>
-      <c r="B15" s="13" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
-        <v>650</v>
-      </c>
-      <c r="B16" s="13" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
-        <v>700</v>
-      </c>
-      <c r="B17" s="13" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D17" s="15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E17" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F17" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="G17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="14" t="n">
         <v>5.38</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="15" t="n">
         <v>10.74</v>
       </c>
-      <c r="D18" s="15" t="n">
+      <c r="D18" s="16" t="n">
         <v>1.17</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
         <v>800</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="14" t="n">
         <v>5.71</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="15" t="n">
         <v>11.56</v>
       </c>
-      <c r="D19" s="15" t="n">
+      <c r="D19" s="16" t="n">
         <v>1.25</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
         <v>850</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="14" t="n">
         <v>6.03</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="15" t="n">
         <v>12.39</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D20" s="16" t="n">
         <v>1.34</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
         <v>900</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="14" t="n">
         <v>6.36</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="15" t="n">
         <v>13.2</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="D21" s="16" t="n">
         <v>1.42</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>950</v>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D22" s="16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E22" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18" t="s">
+      <c r="F22" s="18" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
-        <v>950</v>
-      </c>
-      <c r="B22" s="13" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C22" s="14" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="D22" s="15" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="E22" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="F22" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="D23" s="16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E23" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18" t="s">
+      <c r="F23" s="18" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B23" s="13" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="C23" s="14" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="D23" s="15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="E23" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="F23" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="D24" s="16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E24" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18" t="s">
+      <c r="F24" s="18" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B24" s="13" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="C24" s="14" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="E24" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="F24" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B25" s="14" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D25" s="16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E25" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="18" t="s">
+      <c r="F25" s="18" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="G25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="20" t="n">
         <v>1100</v>
       </c>
-      <c r="B25" s="13" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C25" s="14" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="D25" s="15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E25" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="F25" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="19" t="n">
-        <v>1100</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>31</v>
+      <c r="I25" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
